--- a/teste.xlsx
+++ b/teste.xlsx
@@ -594,7 +594,7 @@
         <v>0.07906824146981627</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05269683818970862</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="S2" t="n">
         <v>0.0576923076923077</v>
@@ -665,7 +665,7 @@
         <v>0.07452193475815523</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04959702417854929</v>
+        <v>0.0487656202377324</v>
       </c>
       <c r="S3" t="n">
         <v>0.03846153846153846</v>
@@ -736,7 +736,7 @@
         <v>0.0583989501312336</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09299442033477991</v>
+        <v>0.09143553794574824</v>
       </c>
       <c r="S4" t="n">
         <v>0.01923076923076923</v>
@@ -807,7 +807,7 @@
         <v>0.05582114735658043</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02169869807811531</v>
+        <v>0.02133495885400792</v>
       </c>
       <c r="S5" t="n">
         <v>0.01923076923076923</v>
@@ -878,7 +878,7 @@
         <v>0.05249343832020997</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01859888406695598</v>
+        <v>0.01828710758914965</v>
       </c>
       <c r="S6" t="n">
         <v>0.01923076923076923</v>
@@ -949,7 +949,7 @@
         <v>0.05169666291713536</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02014879107253565</v>
+        <v>0.01981103322157879</v>
       </c>
       <c r="S7" t="n">
         <v>0.03846153846153846</v>
@@ -1020,7 +1020,7 @@
         <v>0.04869703787026622</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S8" t="n">
         <v>0.01923076923076923</v>
@@ -1091,7 +1091,7 @@
         <v>0.04555680539932509</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06199628022318661</v>
+        <v>0.0609570252971655</v>
       </c>
       <c r="S9" t="n">
         <v>0.03846153846153846</v>
@@ -1162,7 +1162,7 @@
         <v>0.04316647919010123</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S10" t="n">
         <v>0.01923076923076923</v>
@@ -1233,7 +1233,7 @@
         <v>0.04265091863517061</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0309981401115933</v>
+        <v>0.03047851264858275</v>
       </c>
       <c r="S11" t="n">
         <v>0.03846153846153846</v>
@@ -1304,7 +1304,7 @@
         <v>0.03716722909636296</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01704897706137632</v>
+        <v>0.01676318195672051</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0.0369328833895763</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05579665220086795</v>
+        <v>0.05486132276744895</v>
       </c>
       <c r="S13" t="n">
         <v>0.03846153846153846</v>
@@ -1446,7 +1446,7 @@
         <v>0.03519872515935508</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S14" t="n">
         <v>0.01923076923076923</v>
@@ -1517,7 +1517,7 @@
         <v>0.031214848143982</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.03037120359955005</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02789832610043397</v>
+        <v>0.02743066138372447</v>
       </c>
       <c r="S16" t="n">
         <v>0.01923076923076923</v>
@@ -1659,7 +1659,7 @@
         <v>0.02709036370453693</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S17" t="n">
         <v>0.01923076923076923</v>
@@ -1730,7 +1730,7 @@
         <v>0.02563742032245969</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0309981401115933</v>
+        <v>0.03047851264858275</v>
       </c>
       <c r="S18" t="n">
         <v>0.1730769230769231</v>
@@ -1801,7 +1801,7 @@
         <v>0.02470003749531309</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S19" t="n">
         <v>0.0576923076923077</v>
@@ -1872,7 +1872,7 @@
         <v>0.02212223472065992</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03719776813391196</v>
+        <v>0.0365742151782993</v>
       </c>
       <c r="S20" t="n">
         <v>0.07692307692307693</v>
@@ -1943,7 +1943,7 @@
         <v>0.01762279715035621</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04029758214507129</v>
+        <v>0.03962206644315757</v>
       </c>
       <c r="S21" t="n">
         <v>0.03846153846153846</v>
@@ -2014,7 +2014,7 @@
         <v>0.0162167229096363</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02293862368257904</v>
+        <v>0.02255409935995123</v>
       </c>
       <c r="S22" t="n">
         <v>0.01923076923076923</v>
@@ -2085,7 +2085,7 @@
         <v>0.01584176977877765</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0309981401115933</v>
+        <v>0.03047851264858275</v>
       </c>
       <c r="S23" t="n">
         <v>0.09615384615384616</v>
@@ -2156,7 +2156,7 @@
         <v>0.01495125609298838</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S24" t="n">
         <v>0.1730769230769231</v>
@@ -2227,7 +2227,7 @@
         <v>0.01326396700412449</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02097540814217813</v>
+        <v>0.02062379355887433</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0.01199850018747657</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01239925604463732</v>
+        <v>0.0121914050594331</v>
       </c>
       <c r="S26" t="n">
         <v>0.01923076923076923</v>
@@ -2369,7 +2369,7 @@
         <v>0.01120172478440195</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02634841909485431</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0.008811398575178103</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02707170903079149</v>
+        <v>0.02661790104642893</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0.007592800899887514</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01115933044017359</v>
+        <v>0.01097226455348979</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2549,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>30</v>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>0.005811773528308962</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01704897706137632</v>
+        <v>0.03352636391344102</v>
       </c>
       <c r="S30" t="n">
         <v>0.01923076923076923</v>
@@ -2653,7 +2653,7 @@
         <v>0.005671166104236971</v>
       </c>
       <c r="R31" t="n">
-        <v>0.009299442033477991</v>
+        <v>0.009143553794574825</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0.005671166104236971</v>
       </c>
       <c r="R32" t="n">
-        <v>0.009299442033477991</v>
+        <v>0.009143553794574825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0.005249343832020997</v>
       </c>
       <c r="R33" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0.004733783277090364</v>
       </c>
       <c r="R34" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0.004171353580802399</v>
       </c>
       <c r="R35" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0.003796400449943757</v>
       </c>
       <c r="R36" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0.003515185601799775</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01115933044017359</v>
+        <v>0.01097226455348979</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0.003187101612298463</v>
       </c>
       <c r="R38" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0.002905886764154481</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S39" t="n">
         <v>0.03846153846153846</v>
@@ -3292,7 +3292,7 @@
         <v>0.002343457067866517</v>
       </c>
       <c r="R40" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0.002296587926509186</v>
       </c>
       <c r="R41" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0.002109111361079865</v>
       </c>
       <c r="R42" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0.002062242219722535</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01859888406695598</v>
+        <v>0.01828710758914965</v>
       </c>
       <c r="S43" t="n">
         <v>0.01923076923076923</v>
@@ -3576,7 +3576,7 @@
         <v>0.00135920509936258</v>
       </c>
       <c r="R44" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0.001124859392575928</v>
       </c>
       <c r="R45" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0.001077990251218598</v>
       </c>
       <c r="R46" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0.0009373828271466067</v>
       </c>
       <c r="R47" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0.0007499062617172854</v>
       </c>
       <c r="R48" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0.0005624296962879641</v>
       </c>
       <c r="R49" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0.000281214848143982</v>
       </c>
       <c r="R50" t="n">
-        <v>0.001549907005579665</v>
+        <v>0.001523925632429137</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0.0002343457067866517</v>
       </c>
       <c r="R51" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0.000140607424071991</v>
       </c>
       <c r="R52" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
